--- a/src/Parameter.xlsx
+++ b/src/Parameter.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Projekte\10uSv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Projekte\NuVe\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F264DA4B-2556-4AE4-A498-FD0E99391516}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A406CC-9DCF-40F7-94C7-4B91CFE86E86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7980" yWindow="792" windowWidth="10248" windowHeight="11244" xr2:uid="{A72651EC-7529-46AF-A0BF-E1ABAC97BDF7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{A72651EC-7529-46AF-A0BF-E1ABAC97BDF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Eingabe" sheetId="2" r:id="rId1"/>
-    <sheet name="intern" sheetId="1" r:id="rId2"/>
+    <sheet name="Dosiskoeffizienten" sheetId="1" r:id="rId2"/>
     <sheet name="Verteilungen" sheetId="3" r:id="rId3"/>
+    <sheet name="Freigabewerte" sheetId="4" r:id="rId4"/>
+    <sheet name="Messeffizienzen" sheetId="5" r:id="rId5"/>
+    <sheet name="Halbwertszeiten" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="145">
   <si>
     <t>Sp10a</t>
   </si>
@@ -372,6 +375,102 @@
   </si>
   <si>
     <t>Inh. Arb.</t>
+  </si>
+  <si>
+    <t>OF</t>
+  </si>
+  <si>
+    <t>1a</t>
+  </si>
+  <si>
+    <t>2a</t>
+  </si>
+  <si>
+    <t>3a</t>
+  </si>
+  <si>
+    <t>4a</t>
+  </si>
+  <si>
+    <t>1b</t>
+  </si>
+  <si>
+    <t>2b</t>
+  </si>
+  <si>
+    <t>3b</t>
+  </si>
+  <si>
+    <t>4b</t>
+  </si>
+  <si>
+    <t>5b</t>
+  </si>
+  <si>
+    <t>6b</t>
+  </si>
+  <si>
+    <t>1a*</t>
+  </si>
+  <si>
+    <t>1a_19-20</t>
+  </si>
+  <si>
+    <t>Nuklid</t>
+  </si>
+  <si>
+    <t>Mn54</t>
+  </si>
+  <si>
+    <t>Co57</t>
+  </si>
+  <si>
+    <t>Zn65</t>
+  </si>
+  <si>
+    <t>Ru106</t>
+  </si>
+  <si>
+    <t>Ag110m</t>
+  </si>
+  <si>
+    <t>Sb125</t>
+  </si>
+  <si>
+    <t>Ba133</t>
+  </si>
+  <si>
+    <t>Ce144</t>
+  </si>
+  <si>
+    <t>U234</t>
+  </si>
+  <si>
+    <t>U235</t>
+  </si>
+  <si>
+    <t>Pu239Pu240</t>
+  </si>
+  <si>
+    <t>Cm242</t>
+  </si>
+  <si>
+    <t>Cm244</t>
+  </si>
+  <si>
+    <t>U233</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>Zahl</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -413,12 +512,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -735,7 +835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8DDC35-3D43-4350-84C8-35ABF84E1CEE}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -2757,4 +2857,1867 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A4A71E-AA3F-4057-ABDF-8BD7DFD70944}">
+  <dimension ref="A1:N33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1">
+        <v>6</v>
+      </c>
+      <c r="K2" s="1">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F3" s="1">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1">
+        <v>100</v>
+      </c>
+      <c r="H3" s="1">
+        <v>50</v>
+      </c>
+      <c r="I3" s="1">
+        <v>100</v>
+      </c>
+      <c r="J3" s="1">
+        <v>50</v>
+      </c>
+      <c r="K3" s="1">
+        <v>100</v>
+      </c>
+      <c r="L3" s="1">
+        <v>20</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1">
+        <v>8</v>
+      </c>
+      <c r="I5" s="1">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1">
+        <v>3</v>
+      </c>
+      <c r="K5" s="1">
+        <v>20</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3</v>
+      </c>
+      <c r="K6" s="1">
+        <v>4</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="1">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>6</v>
+      </c>
+      <c r="G7" s="1">
+        <v>70</v>
+      </c>
+      <c r="H7" s="1">
+        <v>20</v>
+      </c>
+      <c r="I7" s="1">
+        <v>100</v>
+      </c>
+      <c r="J7" s="1">
+        <v>20</v>
+      </c>
+      <c r="K7" s="1">
+        <v>50</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>9</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>10</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>4</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="E9" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="1">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1">
+        <v>6</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="K9" s="1">
+        <v>4</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="1">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>40</v>
+      </c>
+      <c r="H10" s="1">
+        <v>10</v>
+      </c>
+      <c r="I10" s="1">
+        <v>40</v>
+      </c>
+      <c r="J10" s="1">
+        <v>4</v>
+      </c>
+      <c r="K10" s="1">
+        <v>20</v>
+      </c>
+      <c r="L10" s="1">
+        <v>3</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G11" s="1">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3</v>
+      </c>
+      <c r="I11" s="1">
+        <v>10</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>5</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1">
+        <v>8</v>
+      </c>
+      <c r="I12" s="1">
+        <v>10</v>
+      </c>
+      <c r="J12" s="1">
+        <v>3</v>
+      </c>
+      <c r="K12" s="1">
+        <v>10</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>100</v>
+      </c>
+      <c r="E13" s="1">
+        <v>100</v>
+      </c>
+      <c r="F13" s="1">
+        <v>100</v>
+      </c>
+      <c r="G13" s="1">
+        <v>40</v>
+      </c>
+      <c r="H13" s="1">
+        <v>10</v>
+      </c>
+      <c r="I13" s="1">
+        <v>80</v>
+      </c>
+      <c r="J13" s="1">
+        <v>10</v>
+      </c>
+      <c r="K13" s="1">
+        <v>100</v>
+      </c>
+      <c r="L13" s="1">
+        <v>2</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="1">
+        <v>100</v>
+      </c>
+      <c r="C14" s="1">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F14" s="1">
+        <v>30</v>
+      </c>
+      <c r="G14" s="1">
+        <v>100</v>
+      </c>
+      <c r="H14" s="1">
+        <v>100</v>
+      </c>
+      <c r="I14" s="1">
+        <v>100</v>
+      </c>
+      <c r="J14" s="1">
+        <v>100</v>
+      </c>
+      <c r="K14" s="1">
+        <v>200</v>
+      </c>
+      <c r="L14" s="1">
+        <v>10</v>
+      </c>
+      <c r="M14" s="1">
+        <v>10</v>
+      </c>
+      <c r="N14" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G15" s="1">
+        <v>10</v>
+      </c>
+      <c r="H15" s="1">
+        <v>4</v>
+      </c>
+      <c r="I15" s="1">
+        <v>10</v>
+      </c>
+      <c r="J15" s="1">
+        <v>4</v>
+      </c>
+      <c r="K15" s="1">
+        <v>6</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="G16" s="1">
+        <v>10</v>
+      </c>
+      <c r="H16" s="1">
+        <v>4</v>
+      </c>
+      <c r="I16" s="1">
+        <v>10</v>
+      </c>
+      <c r="J16" s="1">
+        <v>4</v>
+      </c>
+      <c r="K16" s="1">
+        <v>6</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>20</v>
+      </c>
+      <c r="G17" s="1">
+        <v>100</v>
+      </c>
+      <c r="H17" s="1">
+        <v>100</v>
+      </c>
+      <c r="I17" s="1">
+        <v>100</v>
+      </c>
+      <c r="J17" s="1">
+        <v>100</v>
+      </c>
+      <c r="K17" s="1">
+        <v>300</v>
+      </c>
+      <c r="L17" s="1">
+        <v>30</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1">
+        <v>100</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D18" s="1">
+        <v>200</v>
+      </c>
+      <c r="E18" s="1">
+        <v>6</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G18" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H18" s="1">
+        <v>7000</v>
+      </c>
+      <c r="I18" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J18" s="1">
+        <v>10000</v>
+      </c>
+      <c r="K18" s="1">
+        <v>20000</v>
+      </c>
+      <c r="L18" s="1">
+        <v>10000</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="N18" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1">
+        <v>100</v>
+      </c>
+      <c r="C19" s="1">
+        <v>100</v>
+      </c>
+      <c r="D19" s="1">
+        <v>300</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G19" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I19" s="1">
+        <v>60000</v>
+      </c>
+      <c r="J19" s="1">
+        <v>6000</v>
+      </c>
+      <c r="K19" s="1">
+        <v>40000</v>
+      </c>
+      <c r="L19" s="1">
+        <v>10000</v>
+      </c>
+      <c r="M19" s="1">
+        <v>100</v>
+      </c>
+      <c r="N19" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="F20" s="1">
+        <v>30</v>
+      </c>
+      <c r="G20" s="1">
+        <v>6</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I20" s="1">
+        <v>40</v>
+      </c>
+      <c r="J20" s="1">
+        <v>4</v>
+      </c>
+      <c r="K20" s="1">
+        <v>30</v>
+      </c>
+      <c r="L20" s="1">
+        <v>9</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E21" s="1">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>6</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I21" s="1">
+        <v>10</v>
+      </c>
+      <c r="J21" s="1">
+        <v>2</v>
+      </c>
+      <c r="K21" s="1">
+        <v>10</v>
+      </c>
+      <c r="L21" s="1">
+        <v>2</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E22" s="1">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>6</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I22" s="1">
+        <v>10</v>
+      </c>
+      <c r="J22" s="1">
+        <v>5</v>
+      </c>
+      <c r="K22" s="1">
+        <v>10</v>
+      </c>
+      <c r="L22" s="1">
+        <v>2</v>
+      </c>
+      <c r="M22" s="1">
+        <v>1</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>10</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I23" s="1">
+        <v>4</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="K23" s="1">
+        <v>10</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
+        <v>2</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>3</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="1">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1">
+        <v>10</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>4</v>
+      </c>
+      <c r="F26" s="1">
+        <v>10</v>
+      </c>
+      <c r="G26" s="1">
+        <v>100</v>
+      </c>
+      <c r="H26" s="1">
+        <v>40</v>
+      </c>
+      <c r="I26" s="1">
+        <v>100</v>
+      </c>
+      <c r="J26" s="1">
+        <v>100</v>
+      </c>
+      <c r="K26" s="1">
+        <v>90</v>
+      </c>
+      <c r="L26" s="1">
+        <v>10</v>
+      </c>
+      <c r="M26" s="1">
+        <v>10</v>
+      </c>
+      <c r="N26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1">
+        <v>3</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>10</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>80</v>
+      </c>
+      <c r="H28" s="1">
+        <v>20</v>
+      </c>
+      <c r="I28" s="1">
+        <v>100</v>
+      </c>
+      <c r="J28" s="1">
+        <v>50</v>
+      </c>
+      <c r="K28" s="1">
+        <v>40</v>
+      </c>
+      <c r="L28" s="1">
+        <v>5</v>
+      </c>
+      <c r="M28" s="1">
+        <v>10</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>10</v>
+      </c>
+      <c r="H29" s="1">
+        <v>5</v>
+      </c>
+      <c r="I29" s="1">
+        <v>10</v>
+      </c>
+      <c r="J29" s="1">
+        <v>10</v>
+      </c>
+      <c r="K29" s="1">
+        <v>5</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M29" s="1">
+        <v>1</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="1">
+        <v>100</v>
+      </c>
+      <c r="C30" s="1">
+        <v>100</v>
+      </c>
+      <c r="D30" s="1">
+        <v>300</v>
+      </c>
+      <c r="E30" s="1">
+        <v>8</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G30" s="1">
+        <v>3000</v>
+      </c>
+      <c r="H30" s="1">
+        <v>300</v>
+      </c>
+      <c r="I30" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J30" s="1">
+        <v>3000</v>
+      </c>
+      <c r="K30" s="1">
+        <v>9000</v>
+      </c>
+      <c r="L30" s="1">
+        <v>10000</v>
+      </c>
+      <c r="M30" s="1">
+        <v>100</v>
+      </c>
+      <c r="N30" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="1">
+        <v>100</v>
+      </c>
+      <c r="C31" s="1">
+        <v>100</v>
+      </c>
+      <c r="D31" s="1">
+        <v>60</v>
+      </c>
+      <c r="E31" s="1">
+        <v>3</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G31" s="1">
+        <v>60000</v>
+      </c>
+      <c r="H31" s="1">
+        <v>6000</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="K31" s="1">
+        <v>4000</v>
+      </c>
+      <c r="L31" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M31" s="1">
+        <v>100</v>
+      </c>
+      <c r="N31" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E32" s="1">
+        <v>10</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>5</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I32" s="1">
+        <v>10</v>
+      </c>
+      <c r="J32" s="1">
+        <v>4</v>
+      </c>
+      <c r="K32" s="1">
+        <v>10</v>
+      </c>
+      <c r="L32" s="1">
+        <v>3</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" s="1">
+        <v>100</v>
+      </c>
+      <c r="C33" s="1">
+        <v>80</v>
+      </c>
+      <c r="D33" s="1">
+        <v>10</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G33" s="1">
+        <v>4000</v>
+      </c>
+      <c r="H33" s="1">
+        <v>400</v>
+      </c>
+      <c r="I33" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J33" s="1">
+        <v>10000</v>
+      </c>
+      <c r="K33" s="1">
+        <v>6000</v>
+      </c>
+      <c r="L33" s="1">
+        <v>80</v>
+      </c>
+      <c r="M33" s="1">
+        <v>80</v>
+      </c>
+      <c r="N33" s="1">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F37F890-777E-4BC5-8682-71DF69E700E3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56B2BD30-B8F8-4DCB-A090-656B4B329DB3}">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2">
+        <v>312.10000000000002</v>
+      </c>
+      <c r="C2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3">
+        <v>271.8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5.3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5">
+        <v>244.2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1">
+        <v>20000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7">
+        <v>372.6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>418</v>
+      </c>
+      <c r="C8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9">
+        <v>249.8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10">
+        <v>2.8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>2.1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13">
+        <v>10.5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14">
+        <v>285</v>
+      </c>
+      <c r="C14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>13.5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>8.6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>4.8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>2.7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>100.6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>28.8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="1">
+        <v>250000</v>
+      </c>
+      <c r="C21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>4500000000</v>
+      </c>
+      <c r="C22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="1">
+        <v>700000000</v>
+      </c>
+      <c r="C23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="1">
+        <v>6600</v>
+      </c>
+      <c r="C24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="1">
+        <v>87.7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="1">
+        <v>14.3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="1">
+        <v>432.8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="1">
+        <v>162.9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29" s="1">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="1">
+        <v>76000</v>
+      </c>
+      <c r="C30" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="1">
+        <v>12.3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B32" s="1">
+        <v>160000</v>
+      </c>
+      <c r="C32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" s="1">
+        <v>5700</v>
+      </c>
+      <c r="C33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/Parameter.xlsx
+++ b/src/Parameter.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Projekte\NuVe\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A406CC-9DCF-40F7-94C7-4B91CFE86E86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9C5988-5018-4F34-8297-402E0FD838F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{A72651EC-7529-46AF-A0BF-E1ABAC97BDF7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{A72651EC-7529-46AF-A0BF-E1ABAC97BDF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Eingabe" sheetId="2" r:id="rId1"/>
-    <sheet name="Dosiskoeffizienten" sheetId="1" r:id="rId2"/>
-    <sheet name="Verteilungen" sheetId="3" r:id="rId3"/>
+    <sheet name="Verteilungen" sheetId="3" r:id="rId2"/>
+    <sheet name="Dosiskoeffizienten" sheetId="1" r:id="rId3"/>
     <sheet name="Freigabewerte" sheetId="4" r:id="rId4"/>
     <sheet name="Messeffizienzen" sheetId="5" r:id="rId5"/>
     <sheet name="Halbwertszeiten" sheetId="6" r:id="rId6"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="150">
   <si>
     <t>Sp10a</t>
   </si>
@@ -471,6 +471,21 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>fma</t>
+  </si>
+  <si>
+    <t>mc</t>
+  </si>
+  <si>
+    <t>como</t>
+  </si>
+  <si>
+    <t>lb124</t>
+  </si>
+  <si>
+    <t>is</t>
   </si>
 </sst>
 </file>
@@ -993,11 +1008,816 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839BFC99-308E-42E9-9504-8CC5382CFD48}">
+  <dimension ref="A1:F78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="43.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+      <c r="C2">
+        <v>300</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>300</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>0.3</v>
+      </c>
+      <c r="C3">
+        <v>0.1</v>
+      </c>
+      <c r="D3">
+        <v>0.05</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="C6">
+        <v>1E-3</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1.002</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>500</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15">
+        <v>0.6</v>
+      </c>
+      <c r="C15">
+        <v>0.6</v>
+      </c>
+      <c r="D15">
+        <v>0.2</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20">
+        <v>0.05</v>
+      </c>
+      <c r="C20">
+        <v>0.05</v>
+      </c>
+      <c r="D20">
+        <v>0.01</v>
+      </c>
+      <c r="E20">
+        <v>0.1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C21">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D21">
+        <v>1E-3</v>
+      </c>
+      <c r="E21">
+        <v>0.01</v>
+      </c>
+      <c r="F21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27">
+        <v>200</v>
+      </c>
+      <c r="C27">
+        <v>200</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>500</v>
+      </c>
+      <c r="F27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29">
+        <v>1500</v>
+      </c>
+      <c r="C29">
+        <v>500</v>
+      </c>
+      <c r="D29">
+        <v>100</v>
+      </c>
+      <c r="E29">
+        <v>2000</v>
+      </c>
+      <c r="F29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37">
+        <v>30</v>
+      </c>
+      <c r="C37">
+        <v>30</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>50</v>
+      </c>
+      <c r="F37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39">
+        <v>3000</v>
+      </c>
+      <c r="C39">
+        <v>3000</v>
+      </c>
+      <c r="D39">
+        <v>100</v>
+      </c>
+      <c r="E39">
+        <v>8760</v>
+      </c>
+      <c r="F39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>69</v>
+      </c>
+      <c r="F40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>71</v>
+      </c>
+      <c r="F41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>75</v>
+      </c>
+      <c r="F45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>77</v>
+      </c>
+      <c r="F46" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47">
+        <v>2E-3</v>
+      </c>
+      <c r="C47">
+        <v>1E-3</v>
+      </c>
+      <c r="D47">
+        <v>1E-3</v>
+      </c>
+      <c r="E47">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>80</v>
+      </c>
+      <c r="F48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49">
+        <v>400</v>
+      </c>
+      <c r="C49">
+        <v>400</v>
+      </c>
+      <c r="D49">
+        <v>50</v>
+      </c>
+      <c r="E49">
+        <v>1000</v>
+      </c>
+      <c r="F49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>82</v>
+      </c>
+      <c r="F50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>83</v>
+      </c>
+      <c r="F51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="F55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>77</v>
+      </c>
+      <c r="F56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57">
+        <v>50</v>
+      </c>
+      <c r="C57">
+        <v>50</v>
+      </c>
+      <c r="D57">
+        <v>10</v>
+      </c>
+      <c r="E57">
+        <v>100</v>
+      </c>
+      <c r="F57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58">
+        <v>0.2</v>
+      </c>
+      <c r="C58">
+        <v>0.1</v>
+      </c>
+      <c r="D58">
+        <v>0.1</v>
+      </c>
+      <c r="E58">
+        <v>0.3</v>
+      </c>
+      <c r="F58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>87</v>
+      </c>
+      <c r="F59" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>88</v>
+      </c>
+      <c r="F60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>90</v>
+      </c>
+      <c r="F64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>92</v>
+      </c>
+      <c r="F65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66">
+        <v>120</v>
+      </c>
+      <c r="C66">
+        <v>100</v>
+      </c>
+      <c r="D66">
+        <v>50</v>
+      </c>
+      <c r="E66">
+        <v>500</v>
+      </c>
+      <c r="F66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>95</v>
+      </c>
+      <c r="F67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>96</v>
+      </c>
+      <c r="F68" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>98</v>
+      </c>
+      <c r="B72">
+        <v>0.1</v>
+      </c>
+      <c r="C72">
+        <v>0.1</v>
+      </c>
+      <c r="D72">
+        <v>0.05</v>
+      </c>
+      <c r="E72">
+        <v>0.25</v>
+      </c>
+      <c r="F72" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>99</v>
+      </c>
+      <c r="F73" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>100</v>
+      </c>
+      <c r="B74">
+        <v>20</v>
+      </c>
+      <c r="C74">
+        <v>10</v>
+      </c>
+      <c r="D74">
+        <v>10</v>
+      </c>
+      <c r="E74">
+        <v>30</v>
+      </c>
+      <c r="F74" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>101</v>
+      </c>
+      <c r="F75" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>59</v>
+      </c>
+      <c r="F76" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>102</v>
+      </c>
+      <c r="F77" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C78">
+        <v>1E-3</v>
+      </c>
+      <c r="D78">
+        <v>1E-4</v>
+      </c>
+      <c r="E78">
+        <v>2E-3</v>
+      </c>
+      <c r="F78" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4D5DCF-BFEC-46DE-9785-724AEFE8AA52}">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1058,7 +1878,7 @@
         <v>16</v>
       </c>
       <c r="S1" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="T1" t="s">
         <v>18</v>
@@ -1412,10 +2232,10 @@
         <v>3.9244683360000001E-10</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>1.0000000000000001E-30</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>1.0000000000000001E-30</v>
       </c>
       <c r="I11" s="1">
         <v>9.9361995026861172E-10</v>
@@ -1433,16 +2253,16 @@
         <v>1.1680203E-9</v>
       </c>
       <c r="N11" s="1">
-        <v>0</v>
+        <v>1.0000000000000001E-30</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>1.0000000000000001E-30</v>
       </c>
       <c r="P11" s="1">
-        <v>0</v>
+        <v>1.0000000000000001E-30</v>
       </c>
       <c r="Q11" s="1">
-        <v>0</v>
+        <v>1.0000000000000001E-30</v>
       </c>
       <c r="R11" s="1">
         <v>5.3760044800000024E-18</v>
@@ -1480,10 +2300,10 @@
         <v>2.5016519919999999E-8</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>1.0000000000000001E-30</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>1.0000000000000001E-30</v>
       </c>
       <c r="I12" s="1">
         <v>6.4986705935547917E-8</v>
@@ -1501,16 +2321,16 @@
         <v>6.9688400000000003E-8</v>
       </c>
       <c r="N12" s="1">
-        <v>0</v>
+        <v>1.0000000000000001E-30</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>1.0000000000000001E-30</v>
       </c>
       <c r="P12" s="1">
-        <v>0</v>
+        <v>1.0000000000000001E-30</v>
       </c>
       <c r="Q12" s="1">
-        <v>0</v>
+        <v>1.0000000000000001E-30</v>
       </c>
       <c r="R12" s="1">
         <v>2.6290470470000013E-16</v>
@@ -1548,10 +2368,10 @@
         <v>5.6094288400000002E-14</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>1.0000000000000001E-30</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>1.0000000000000001E-30</v>
       </c>
       <c r="I13" s="1">
         <v>1.5291862158956999E-13</v>
@@ -1569,16 +2389,16 @@
         <v>1.482415367315E-13</v>
       </c>
       <c r="N13" s="1">
-        <v>0</v>
+        <v>1.0000000000000001E-30</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>1.0000000000000001E-30</v>
       </c>
       <c r="P13" s="1">
-        <v>0</v>
+        <v>1.0000000000000001E-30</v>
       </c>
       <c r="Q13" s="1">
-        <v>0</v>
+        <v>1.0000000000000001E-30</v>
       </c>
       <c r="R13" s="1">
         <v>2.6043569200000001E-18</v>
@@ -1616,10 +2436,10 @@
         <v>2.283448768E-8</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>1.0000000000000001E-30</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>1.0000000000000001E-30</v>
       </c>
       <c r="I14" s="1">
         <v>6.3145189320440291E-8</v>
@@ -1637,16 +2457,16 @@
         <v>5.8795100696362849E-8</v>
       </c>
       <c r="N14" s="1">
-        <v>0</v>
+        <v>1.0000000000000001E-30</v>
       </c>
       <c r="O14" s="1">
-        <v>0</v>
+        <v>1.0000000000000001E-30</v>
       </c>
       <c r="P14" s="1">
-        <v>0</v>
+        <v>1.0000000000000001E-30</v>
       </c>
       <c r="Q14" s="1">
-        <v>0</v>
+        <v>1.0000000000000001E-30</v>
       </c>
       <c r="R14" s="1">
         <v>1.1509319800000001E-13</v>
@@ -2054,816 +2874,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839BFC99-308E-42E9-9504-8CC5382CFD48}">
-  <dimension ref="A1:F78"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="43.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2">
-        <v>200</v>
-      </c>
-      <c r="C2">
-        <v>300</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>300</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3">
-        <v>0.3</v>
-      </c>
-      <c r="C3">
-        <v>0.1</v>
-      </c>
-      <c r="D3">
-        <v>0.05</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="C6">
-        <v>1E-3</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1.002</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13">
-        <v>20</v>
-      </c>
-      <c r="C13">
-        <v>20</v>
-      </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>40</v>
-      </c>
-      <c r="F13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14">
-        <v>50</v>
-      </c>
-      <c r="C14">
-        <v>100</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>500</v>
-      </c>
-      <c r="F14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15">
-        <v>0.6</v>
-      </c>
-      <c r="C15">
-        <v>0.6</v>
-      </c>
-      <c r="D15">
-        <v>0.2</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20">
-        <v>0.05</v>
-      </c>
-      <c r="C20">
-        <v>0.05</v>
-      </c>
-      <c r="D20">
-        <v>0.01</v>
-      </c>
-      <c r="E20">
-        <v>0.1</v>
-      </c>
-      <c r="F20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C21">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D21">
-        <v>1E-3</v>
-      </c>
-      <c r="E21">
-        <v>0.01</v>
-      </c>
-      <c r="F21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27">
-        <v>200</v>
-      </c>
-      <c r="C27">
-        <v>200</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>500</v>
-      </c>
-      <c r="F27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29">
-        <v>1500</v>
-      </c>
-      <c r="C29">
-        <v>500</v>
-      </c>
-      <c r="D29">
-        <v>100</v>
-      </c>
-      <c r="E29">
-        <v>2000</v>
-      </c>
-      <c r="F29" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>69</v>
-      </c>
-      <c r="F30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>71</v>
-      </c>
-      <c r="F31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>61</v>
-      </c>
-      <c r="F35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>63</v>
-      </c>
-      <c r="F36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37">
-        <v>30</v>
-      </c>
-      <c r="C37">
-        <v>30</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>50</v>
-      </c>
-      <c r="F37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>2</v>
-      </c>
-      <c r="F38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39">
-        <v>3000</v>
-      </c>
-      <c r="C39">
-        <v>3000</v>
-      </c>
-      <c r="D39">
-        <v>100</v>
-      </c>
-      <c r="E39">
-        <v>8760</v>
-      </c>
-      <c r="F39" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>69</v>
-      </c>
-      <c r="F40" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>71</v>
-      </c>
-      <c r="F41" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>75</v>
-      </c>
-      <c r="F45" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>77</v>
-      </c>
-      <c r="F46" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>78</v>
-      </c>
-      <c r="B47">
-        <v>2E-3</v>
-      </c>
-      <c r="C47">
-        <v>1E-3</v>
-      </c>
-      <c r="D47">
-        <v>1E-3</v>
-      </c>
-      <c r="E47">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="F47" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>80</v>
-      </c>
-      <c r="F48" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>67</v>
-      </c>
-      <c r="B49">
-        <v>400</v>
-      </c>
-      <c r="C49">
-        <v>400</v>
-      </c>
-      <c r="D49">
-        <v>50</v>
-      </c>
-      <c r="E49">
-        <v>1000</v>
-      </c>
-      <c r="F49" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>82</v>
-      </c>
-      <c r="F50" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>83</v>
-      </c>
-      <c r="F51" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>59</v>
-      </c>
-      <c r="F55" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>77</v>
-      </c>
-      <c r="F56" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>85</v>
-      </c>
-      <c r="B57">
-        <v>50</v>
-      </c>
-      <c r="C57">
-        <v>50</v>
-      </c>
-      <c r="D57">
-        <v>10</v>
-      </c>
-      <c r="E57">
-        <v>100</v>
-      </c>
-      <c r="F57" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>48</v>
-      </c>
-      <c r="B58">
-        <v>0.2</v>
-      </c>
-      <c r="C58">
-        <v>0.1</v>
-      </c>
-      <c r="D58">
-        <v>0.1</v>
-      </c>
-      <c r="E58">
-        <v>0.3</v>
-      </c>
-      <c r="F58" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>87</v>
-      </c>
-      <c r="F59" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>88</v>
-      </c>
-      <c r="F60" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>90</v>
-      </c>
-      <c r="F64" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>92</v>
-      </c>
-      <c r="F65" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>94</v>
-      </c>
-      <c r="B66">
-        <v>120</v>
-      </c>
-      <c r="C66">
-        <v>100</v>
-      </c>
-      <c r="D66">
-        <v>50</v>
-      </c>
-      <c r="E66">
-        <v>500</v>
-      </c>
-      <c r="F66" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>95</v>
-      </c>
-      <c r="F67" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>96</v>
-      </c>
-      <c r="F68" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>98</v>
-      </c>
-      <c r="B72">
-        <v>0.1</v>
-      </c>
-      <c r="C72">
-        <v>0.1</v>
-      </c>
-      <c r="D72">
-        <v>0.05</v>
-      </c>
-      <c r="E72">
-        <v>0.25</v>
-      </c>
-      <c r="F72" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>99</v>
-      </c>
-      <c r="F73" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>100</v>
-      </c>
-      <c r="B74">
-        <v>20</v>
-      </c>
-      <c r="C74">
-        <v>10</v>
-      </c>
-      <c r="D74">
-        <v>10</v>
-      </c>
-      <c r="E74">
-        <v>30</v>
-      </c>
-      <c r="F74" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>101</v>
-      </c>
-      <c r="F75" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>59</v>
-      </c>
-      <c r="F76" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>102</v>
-      </c>
-      <c r="F77" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C78">
-        <v>1E-3</v>
-      </c>
-      <c r="D78">
-        <v>1E-4</v>
-      </c>
-      <c r="E78">
-        <v>2E-3</v>
-      </c>
-      <c r="F78" t="s">
-        <v>79</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A4A71E-AA3F-4057-ABDF-8BD7DFD70944}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -4331,12 +4346,363 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F37F890-777E-4BC5-8682-71DF69E700E3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2">
+        <v>0.45850000000000002</v>
+      </c>
+      <c r="C2">
+        <v>0.6</v>
+      </c>
+      <c r="E2">
+        <v>0.8</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="D3">
+        <v>7.5</v>
+      </c>
+      <c r="E3">
+        <v>43.1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>26</v>
+      </c>
+      <c r="D4">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>28.9</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5">
+        <v>0.25840000000000002</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0.52339999999999998</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7">
+        <v>0.1208</v>
+      </c>
+      <c r="E7">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.96919999999999995</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9">
+        <v>1.4105000000000001</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10">
+        <v>0.25259999999999999</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>0.90810000000000002</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>0.34139999999999998</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>35</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14">
+        <v>0.24030000000000001</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>0.50190000000000001</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>0.56140000000000001</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>0.5</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>0.5</v>
+      </c>
+      <c r="D18">
+        <v>0.8</v>
+      </c>
+      <c r="E18">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>0.5</v>
+      </c>
+      <c r="E19">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>40</v>
+      </c>
+      <c r="D20">
+        <v>42</v>
+      </c>
+      <c r="E20">
+        <v>84.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>48.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4345,8 +4711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56B2BD30-B8F8-4DCB-A090-656B4B329DB3}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/Parameter.xlsx
+++ b/src/Parameter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Projekte\NuVe\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9C5988-5018-4F34-8297-402E0FD838F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3CC3A7-2469-4588-86A7-1820219D00A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{A72651EC-7529-46AF-A0BF-E1ABAC97BDF7}"/>
   </bookViews>
@@ -1817,7 +1817,7 @@
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:H14"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2232,10 +2232,10 @@
         <v>3.9244683360000001E-10</v>
       </c>
       <c r="G11" s="1">
-        <v>1.0000000000000001E-30</v>
+        <v>1E-35</v>
       </c>
       <c r="H11" s="1">
-        <v>1.0000000000000001E-30</v>
+        <v>1E-35</v>
       </c>
       <c r="I11" s="1">
         <v>9.9361995026861172E-10</v>
@@ -2253,16 +2253,16 @@
         <v>1.1680203E-9</v>
       </c>
       <c r="N11" s="1">
-        <v>1.0000000000000001E-30</v>
+        <v>1E-35</v>
       </c>
       <c r="O11" s="1">
-        <v>1.0000000000000001E-30</v>
+        <v>1E-35</v>
       </c>
       <c r="P11" s="1">
-        <v>1.0000000000000001E-30</v>
+        <v>1E-35</v>
       </c>
       <c r="Q11" s="1">
-        <v>1.0000000000000001E-30</v>
+        <v>1E-35</v>
       </c>
       <c r="R11" s="1">
         <v>5.3760044800000024E-18</v>
@@ -2300,10 +2300,10 @@
         <v>2.5016519919999999E-8</v>
       </c>
       <c r="G12" s="1">
-        <v>1.0000000000000001E-30</v>
+        <v>1E-35</v>
       </c>
       <c r="H12" s="1">
-        <v>1.0000000000000001E-30</v>
+        <v>1E-35</v>
       </c>
       <c r="I12" s="1">
         <v>6.4986705935547917E-8</v>
@@ -2321,16 +2321,16 @@
         <v>6.9688400000000003E-8</v>
       </c>
       <c r="N12" s="1">
-        <v>1.0000000000000001E-30</v>
+        <v>1E-35</v>
       </c>
       <c r="O12" s="1">
-        <v>1.0000000000000001E-30</v>
+        <v>1E-35</v>
       </c>
       <c r="P12" s="1">
-        <v>1.0000000000000001E-30</v>
+        <v>1E-35</v>
       </c>
       <c r="Q12" s="1">
-        <v>1.0000000000000001E-30</v>
+        <v>1E-35</v>
       </c>
       <c r="R12" s="1">
         <v>2.6290470470000013E-16</v>
@@ -2368,10 +2368,10 @@
         <v>5.6094288400000002E-14</v>
       </c>
       <c r="G13" s="1">
-        <v>1.0000000000000001E-30</v>
+        <v>1E-35</v>
       </c>
       <c r="H13" s="1">
-        <v>1.0000000000000001E-30</v>
+        <v>1E-35</v>
       </c>
       <c r="I13" s="1">
         <v>1.5291862158956999E-13</v>
@@ -2389,16 +2389,16 @@
         <v>1.482415367315E-13</v>
       </c>
       <c r="N13" s="1">
-        <v>1.0000000000000001E-30</v>
+        <v>1E-35</v>
       </c>
       <c r="O13" s="1">
-        <v>1.0000000000000001E-30</v>
+        <v>1E-35</v>
       </c>
       <c r="P13" s="1">
-        <v>1.0000000000000001E-30</v>
+        <v>1E-35</v>
       </c>
       <c r="Q13" s="1">
-        <v>1.0000000000000001E-30</v>
+        <v>1E-35</v>
       </c>
       <c r="R13" s="1">
         <v>2.6043569200000001E-18</v>
@@ -2436,10 +2436,10 @@
         <v>2.283448768E-8</v>
       </c>
       <c r="G14" s="1">
-        <v>1.0000000000000001E-30</v>
+        <v>1E-35</v>
       </c>
       <c r="H14" s="1">
-        <v>1.0000000000000001E-30</v>
+        <v>1E-35</v>
       </c>
       <c r="I14" s="1">
         <v>6.3145189320440291E-8</v>
@@ -2457,16 +2457,16 @@
         <v>5.8795100696362849E-8</v>
       </c>
       <c r="N14" s="1">
-        <v>1.0000000000000001E-30</v>
+        <v>1E-35</v>
       </c>
       <c r="O14" s="1">
-        <v>1.0000000000000001E-30</v>
+        <v>1E-35</v>
       </c>
       <c r="P14" s="1">
-        <v>1.0000000000000001E-30</v>
+        <v>1E-35</v>
       </c>
       <c r="Q14" s="1">
-        <v>1.0000000000000001E-30</v>
+        <v>1E-35</v>
       </c>
       <c r="R14" s="1">
         <v>1.1509319800000001E-13</v>
@@ -2878,8 +2878,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A4A71E-AA3F-4057-ABDF-8BD7DFD70944}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4349,7 +4350,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4520,6 +4521,9 @@
       </c>
       <c r="D12">
         <v>35</v>
+      </c>
+      <c r="E12">
+        <v>43.1</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -4712,7 +4716,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/Parameter.xlsx
+++ b/src/Parameter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Projekte\NuVe\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3CC3A7-2469-4588-86A7-1820219D00A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54FDF63-E5AB-4A10-A992-819D283099D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{A72651EC-7529-46AF-A0BF-E1ABAC97BDF7}"/>
+    <workbookView xWindow="2832" yWindow="816" windowWidth="12960" windowHeight="10560" tabRatio="752" firstSheet="3" activeTab="4" xr2:uid="{A72651EC-7529-46AF-A0BF-E1ABAC97BDF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Eingabe" sheetId="2" r:id="rId1"/>
@@ -24,12 +24,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -851,7 +845,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -869,7 +863,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>0.28999999999999998</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -896,7 +890,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>13.27</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -910,7 +904,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>81.42</v>
+        <v>68.44</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -923,13 +917,17 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3">
+        <v>6.48</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -953,15 +951,15 @@
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3">
+        <v>2.2599999999999998</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="3">
-        <v>5</v>
-      </c>
+      <c r="B16" s="3"/>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -980,7 +978,9 @@
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="3">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -993,7 +993,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3">
-        <v>0.02</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -1816,7 +1816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4D5DCF-BFEC-46DE-9785-724AEFE8AA52}">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -2876,19 +2876,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A4A71E-AA3F-4057-ABDF-8BD7DFD70944}">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L30" sqref="L30"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" style="5"/>
+    <col min="16" max="16" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>126</v>
       </c>
@@ -2932,7 +2933,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>127</v>
       </c>
@@ -2975,8 +2976,9 @@
       <c r="N2" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>128</v>
       </c>
@@ -3019,8 +3021,9 @@
       <c r="N3" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -3063,8 +3066,9 @@
       <c r="N4" s="1">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>129</v>
       </c>
@@ -3107,8 +3111,9 @@
       <c r="N5" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -3151,8 +3156,9 @@
       <c r="N6" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>130</v>
       </c>
@@ -3195,8 +3201,9 @@
       <c r="N7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -3239,8 +3246,9 @@
       <c r="N8" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>131</v>
       </c>
@@ -3283,8 +3291,9 @@
       <c r="N9" s="1">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>132</v>
       </c>
@@ -3327,8 +3336,9 @@
       <c r="N10" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
@@ -3371,8 +3381,9 @@
       <c r="N11" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -3415,8 +3426,9 @@
       <c r="N12" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>133</v>
       </c>
@@ -3459,8 +3471,9 @@
       <c r="N13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>134</v>
       </c>
@@ -3503,8 +3516,9 @@
       <c r="N14" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>8</v>
       </c>
@@ -3547,8 +3561,9 @@
       <c r="N15" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>9</v>
       </c>
@@ -3591,8 +3606,9 @@
       <c r="N16" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>10</v>
       </c>
@@ -3635,8 +3651,9 @@
       <c r="N17" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
@@ -3679,8 +3696,9 @@
       <c r="N18" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>6</v>
       </c>
@@ -3723,8 +3741,9 @@
       <c r="N19" s="1">
         <v>300</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>14</v>
       </c>
@@ -3767,8 +3786,9 @@
       <c r="N20" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>135</v>
       </c>
@@ -3811,8 +3831,9 @@
       <c r="N21" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
@@ -3855,8 +3876,9 @@
       <c r="N22" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>136</v>
       </c>
@@ -3899,8 +3921,9 @@
       <c r="N23" s="1">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>137</v>
       </c>
@@ -3943,8 +3966,9 @@
       <c r="N24" s="1">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>16</v>
       </c>
@@ -3987,8 +4011,9 @@
       <c r="N25" s="1">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>13</v>
       </c>
@@ -4031,8 +4056,9 @@
       <c r="N26" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>19</v>
       </c>
@@ -4075,8 +4101,9 @@
       <c r="N27" s="1">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>138</v>
       </c>
@@ -4119,8 +4146,9 @@
       <c r="N28" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>139</v>
       </c>
@@ -4163,8 +4191,9 @@
       <c r="N29" s="1">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>12</v>
       </c>
@@ -4207,8 +4236,9 @@
       <c r="N30" s="1">
         <v>300</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>20</v>
       </c>
@@ -4251,8 +4281,9 @@
       <c r="N31" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>140</v>
       </c>
@@ -4295,8 +4326,9 @@
       <c r="N32" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>141</v>
       </c>
@@ -4339,6 +4371,7 @@
       <c r="N33" s="1">
         <v>80</v>
       </c>
+      <c r="O33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -4347,15 +4380,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F37F890-777E-4BC5-8682-71DF69E700E3}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>126</v>
       </c>
@@ -4375,7 +4408,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>127</v>
       </c>
@@ -4391,8 +4424,20 @@
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <f>C2/C$4</f>
+        <v>2.3076923076923075E-2</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:J17" si="0">D2/D$4</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>2.7681660899653984E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>128</v>
       </c>
@@ -4408,8 +4453,20 @@
       <c r="F3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <f t="shared" ref="H3:H33" si="1">C3/C$4</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>0.32608695652173914</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>1.4913494809688583</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -4428,8 +4485,20 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>129</v>
       </c>
@@ -4439,8 +4508,20 @@
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -4450,8 +4531,20 @@
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>130</v>
       </c>
@@ -4464,8 +4557,20 @@
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>1.3217993079584778</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -4475,8 +4580,20 @@
       <c r="F8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>131</v>
       </c>
@@ -4486,8 +4603,20 @@
       <c r="F9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>132</v>
       </c>
@@ -4497,8 +4626,20 @@
       <c r="F10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
@@ -4508,8 +4649,20 @@
       <c r="F11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -4528,8 +4681,20 @@
       <c r="F12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>1.1538461538461537</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>1.5217391304347827</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>1.4913494809688583</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>133</v>
       </c>
@@ -4539,8 +4704,20 @@
       <c r="F13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>134</v>
       </c>
@@ -4550,8 +4727,20 @@
       <c r="F14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>8</v>
       </c>
@@ -4561,8 +4750,20 @@
       <c r="F15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>9</v>
       </c>
@@ -4572,8 +4773,20 @@
       <c r="F16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>10</v>
       </c>
@@ -4583,8 +4796,20 @@
       <c r="F17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
@@ -4597,8 +4822,20 @@
       <c r="E18">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>1.9230769230769232E-2</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ref="I18:I33" si="2">D18/D$4</f>
+        <v>3.4782608695652174E-2</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ref="J18:J33" si="3">E18/E$4</f>
+        <v>1.3840830449826991E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>6</v>
       </c>
@@ -4611,8 +4848,20 @@
       <c r="E19">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>2.1739130434782608E-2</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>1.1072664359861593E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>14</v>
       </c>
@@ -4625,85 +4874,253 @@
       <c r="E20">
         <v>84.3</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>1.5384615384615385</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>1.826086956521739</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>2.9169550173010381</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E22">
         <v>48.1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>1.6643598615916957</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E25">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>0.12456747404844291</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C27">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="3"/>
+        <v>0.19377162629757785</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>141</v>
       </c>
       <c r="D33">
         <v>14</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>0.60869565217391308</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4715,8 +5132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56B2BD30-B8F8-4DCB-A090-656B4B329DB3}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/Parameter.xlsx
+++ b/src/Parameter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Projekte\NuVe\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54FDF63-E5AB-4A10-A992-819D283099D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B9F854-69E3-4683-95CF-0107EC018D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2832" yWindow="816" windowWidth="12960" windowHeight="10560" tabRatio="752" firstSheet="3" activeTab="4" xr2:uid="{A72651EC-7529-46AF-A0BF-E1ABAC97BDF7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="752" activeTab="3" xr2:uid="{A72651EC-7529-46AF-A0BF-E1ABAC97BDF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Eingabe" sheetId="2" r:id="rId1"/>
@@ -1011,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839BFC99-308E-42E9-9504-8CC5382CFD48}">
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2878,9 +2878,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A4A71E-AA3F-4057-ABDF-8BD7DFD70944}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4291,7 +4291,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D32" s="1">
         <v>0.3</v>
@@ -4321,7 +4321,7 @@
         <v>3</v>
       </c>
       <c r="M32" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="N32" s="1">
         <v>0.4</v>
@@ -4336,7 +4336,7 @@
         <v>100</v>
       </c>
       <c r="C33" s="1">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="D33" s="1">
         <v>10</v>
@@ -4366,7 +4366,7 @@
         <v>80</v>
       </c>
       <c r="M33" s="1">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="N33" s="1">
         <v>80</v>
@@ -4382,7 +4382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F37F890-777E-4BC5-8682-71DF69E700E3}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
@@ -5132,7 +5132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56B2BD30-B8F8-4DCB-A090-656B4B329DB3}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
